--- a/va_facility_data_2025-02-20/Glasgow VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Glasgow%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Glasgow VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Glasgow%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R59331ea4ed1a4b68b06edda6823cb5fc"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rad2ea859df1f4e0ca48223f73e671b2e"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rc9eae6a30b2c4a6e9ef373cd62b21888"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R722dc0e57d7846428cfb2fefa7067f84"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rbf63c3084f604e6c8601e04bc2a5a346"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Ra84a501c51ce42c99707edaf704757d4"/>
   </x:sheets>
 </x:workbook>
 </file>
